--- a/data/trans_dic/IP1001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,23</t>
+          <t>0,79; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,29</t>
+          <t>1,29; 10,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>0,0; 6,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,6</t>
+          <t>0,87; 9,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,82</t>
+          <t>2,07; 8,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 8,43</t>
+          <t>1,44; 8,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 15,75</t>
+          <t>2,63; 15,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,46</t>
+          <t>1,87; 6,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,09</t>
+          <t>1,99; 7,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,93</t>
+          <t>1,89; 7,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,39</t>
+          <t>0,75; 6,33</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,57</t>
+          <t>1,33; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,54</t>
+          <t>1,41; 3,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,26</t>
+          <t>1,63; 4,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,37</t>
+          <t>2,21; 5,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,11</t>
+          <t>1,62; 4,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,52</t>
+          <t>1,13; 3,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,44</t>
+          <t>1,24; 3,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,75</t>
+          <t>1,2; 3,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,42</t>
+          <t>1,68; 3,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,95</t>
+          <t>1,49; 2,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,41</t>
+          <t>1,66; 3,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,12</t>
+          <t>2,08; 4,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,53</t>
+          <t>1,73; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,09</t>
+          <t>1,29; 6,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,9</t>
+          <t>1,05; 5,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,68</t>
+          <t>0,9; 6,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,29</t>
+          <t>1,51; 6,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,7</t>
+          <t>0,31; 2,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,11</t>
+          <t>0,87; 5,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,37</t>
+          <t>2,03; 5,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,2</t>
+          <t>0,81; 3,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,33</t>
+          <t>0,88; 3,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,4</t>
+          <t>1,16; 5,04</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,75</t>
+          <t>1,83; 3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,79</t>
+          <t>1,84; 3,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,62</t>
+          <t>1,83; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,96</t>
+          <t>2,29; 5,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,24</t>
+          <t>1,95; 4,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,95</t>
+          <t>1,19; 2,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,38</t>
+          <t>1,48; 3,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,39</t>
+          <t>1,24; 3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,61</t>
+          <t>2,22; 3,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,97</t>
+          <t>1,7; 3,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,17</t>
+          <t>1,85; 3,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,81</t>
+          <t>2,1; 3,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1001-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,47; 8,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,41; 8,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 14,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 7,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 11,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,84; 9,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,15; 6,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,94; 7,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 8,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,68; 6,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,28</t>
+          <t>1,59; 4,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,88</t>
+          <t>1,2; 3,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,37</t>
+          <t>1,26; 3,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,43</t>
+          <t>1,21; 3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,62</t>
+          <t>1,29; 3,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 8,67</t>
+          <t>1,35; 3,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,03</t>
+          <t>1,72; 4,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,39</t>
+          <t>2,24; 5,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,47</t>
+          <t>1,75; 3,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,67</t>
+          <t>1,49; 3,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,96</t>
+          <t>1,64; 3,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,33</t>
+          <t>2,06; 4,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,56</t>
+          <t>1,51; 6,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,56</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,08</t>
+          <t>0,32; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,38</t>
+          <t>0,9; 5,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,11</t>
+          <t>1,69; 6,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,69</t>
+          <t>1,29; 5,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,38</t>
+          <t>1,05; 4,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,7</t>
+          <t>0,99; 11,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,34</t>
+          <t>2,18; 5,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,99</t>
+          <t>0,75; 3,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,34</t>
+          <t>0,89; 3,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,14</t>
+          <t>1,31; 6,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,87</t>
+          <t>2,1; 4,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,42</t>
+          <t>1,16; 2,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,12</t>
+          <t>1,42; 3,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,58</t>
+          <t>1,33; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,27</t>
+          <t>1,86; 3,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>1,84; 3,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,99</t>
+          <t>1,75; 3,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,0</t>
+          <t>2,29; 5,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,48</t>
+          <t>2,25; 3,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,35</t>
+          <t>1,72; 3,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,2</t>
+          <t>1,82; 3,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,04</t>
+          <t>2,11; 3,94</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,3%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 3,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 3,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 3,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 5,05</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 4,15</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 2,93</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 3,28</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 3,23</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 3,59</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 3,11</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 3,23</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 3,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
